--- a/KA_Data/WB_all.xlsx
+++ b/KA_Data/WB_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11A065-9766-466D-A22B-BF6BA1CCC236}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311557E9-D089-4939-977F-0E4BC3FCB338}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D33160-8BC3-4F53-8B42-B0F06FB1A69C}"/>
   </bookViews>
@@ -31,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>Latitude degree</t>
+  </si>
+  <si>
+    <t>Longitude degree</t>
   </si>
   <si>
     <t>Latitude</t>
@@ -625,1848 +631,5129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591CF2B6-AAE3-47F9-A3FC-52A532613ACB}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <f>B2+(C2/60)+(D2/3600)</f>
         <v>51.348333333333336</v>
       </c>
-      <c r="C2">
+      <c r="I2">
+        <f>-(E2+(F2/60)+(G2/3600))</f>
         <v>-2.1463888888888887</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">B3+(C3/60)+(D3/3600)</f>
         <v>51.351388888888891</v>
       </c>
-      <c r="C3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">-(E3+(F3/60)+(G3/3600))</f>
         <v>-2.1480555555555556</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>51.358611111111109</v>
       </c>
-      <c r="C4">
+      <c r="I4">
+        <f t="shared" si="1"/>
         <v>-2.1458333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>51.359722222222224</v>
       </c>
-      <c r="C5">
+      <c r="I5">
+        <f t="shared" si="1"/>
         <v>-2.1452777777777778</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>51.368333333333332</v>
       </c>
-      <c r="C6">
+      <c r="I6">
+        <f t="shared" si="1"/>
         <v>-2.1516666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>51.371111111111112</v>
       </c>
-      <c r="C7">
+      <c r="I7">
+        <f t="shared" si="1"/>
         <v>-2.1458333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>51.371388888888887</v>
       </c>
-      <c r="C8">
+      <c r="I8">
+        <f t="shared" si="1"/>
         <v>-2.1455555555555557</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>51.373333333333335</v>
       </c>
-      <c r="C9">
+      <c r="I9">
+        <f t="shared" si="1"/>
         <v>-2.1461111111111113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>51.373888888888892</v>
       </c>
-      <c r="C10">
+      <c r="I10">
+        <f t="shared" si="1"/>
         <v>-2.1377777777777776</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>51.380833333333335</v>
       </c>
-      <c r="C11">
+      <c r="I11">
+        <f t="shared" si="1"/>
         <v>-2.1372222222222224</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>51.387777777777778</v>
       </c>
-      <c r="C12">
+      <c r="I12">
+        <f t="shared" si="1"/>
         <v>-2.1341666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="G13">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>51.387777777777778</v>
       </c>
-      <c r="C13">
+      <c r="I13">
+        <f t="shared" si="1"/>
         <v>-2.1324999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>51.387777777777778</v>
       </c>
-      <c r="C14">
+      <c r="I14">
+        <f t="shared" si="1"/>
         <v>-2.1308333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>51.387777777777778</v>
       </c>
-      <c r="C15">
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>-2.1291666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>51.391111111111108</v>
       </c>
-      <c r="C16">
+      <c r="I16">
+        <f t="shared" si="1"/>
         <v>-2.1219444444444444</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>51.396666666666668</v>
       </c>
-      <c r="C17">
+      <c r="I17">
+        <f t="shared" si="1"/>
         <v>-2.1094444444444447</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>51.399166666666666</v>
       </c>
-      <c r="C18">
+      <c r="I18">
+        <f t="shared" si="1"/>
         <v>-2.1091666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>51.404722222222219</v>
       </c>
-      <c r="C19">
+      <c r="I19">
+        <f t="shared" si="1"/>
         <v>-2.1072222222222221</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
         <v>51.405833333333334</v>
       </c>
-      <c r="C20">
+      <c r="I20">
+        <f t="shared" si="1"/>
         <v>-2.1066666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
         <v>51.414166666666667</v>
       </c>
-      <c r="C21">
+      <c r="I21">
+        <f t="shared" si="1"/>
         <v>-2.1080555555555556</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
       <c r="B22">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
         <v>51.422777777777775</v>
       </c>
-      <c r="C22">
+      <c r="I22">
+        <f t="shared" si="1"/>
         <v>-2.1080555555555556</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
       <c r="B23">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
         <v>51.429166666666667</v>
       </c>
-      <c r="C23">
+      <c r="I23">
+        <f t="shared" si="1"/>
         <v>-2.0994444444444444</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
         <v>51.436944444444443</v>
       </c>
-      <c r="C24">
+      <c r="I24">
+        <f t="shared" si="1"/>
         <v>-2.0930555555555559</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
         <v>51.43805555555555</v>
       </c>
-      <c r="C25">
+      <c r="I25">
+        <f t="shared" si="1"/>
         <v>-2.0922222222222224</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
         <v>51.438333333333333</v>
       </c>
-      <c r="C26">
+      <c r="I26">
+        <f t="shared" si="1"/>
         <v>-2.0919444444444446</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
         <v>51.439166666666665</v>
       </c>
-      <c r="C27">
+      <c r="I27">
+        <f t="shared" si="1"/>
         <v>-2.0911111111111111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15</v>
       </c>
       <c r="B28">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
         <v>51.442499999999995</v>
       </c>
-      <c r="C28">
+      <c r="I28">
+        <f t="shared" si="1"/>
         <v>-2.0836111111111113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
       <c r="B29">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
         <v>51.446944444444441</v>
       </c>
-      <c r="C29">
+      <c r="I29">
+        <f t="shared" si="1"/>
         <v>-2.0694444444444446</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>17</v>
       </c>
       <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
         <v>51.451111111111111</v>
       </c>
-      <c r="C30">
+      <c r="I30">
+        <f t="shared" si="1"/>
         <v>-2.0583333333333331</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
         <v>51.451388888888893</v>
       </c>
-      <c r="C31">
+      <c r="I31">
+        <f t="shared" si="1"/>
         <v>-2.0580555555555553</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
         <v>51.45194444444445</v>
       </c>
-      <c r="C32">
+      <c r="I32">
+        <f t="shared" si="1"/>
         <v>-2.0577777777777775</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
       <c r="B33">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
         <v>51.458611111111111</v>
       </c>
-      <c r="C33">
+      <c r="I33">
+        <f t="shared" si="1"/>
         <v>-2.0580555555555553</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
       <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
         <v>51.465833333333336</v>
       </c>
-      <c r="C34">
+      <c r="I34">
+        <f t="shared" si="1"/>
         <v>-2.0499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
         <v>51.473611111111111</v>
       </c>
-      <c r="C35">
+      <c r="I35">
+        <f t="shared" si="1"/>
         <v>-2.0388888888888888</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
       <c r="B36">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
         <v>51.480555555555554</v>
       </c>
-      <c r="C36">
+      <c r="I36">
+        <f t="shared" si="1"/>
         <v>-2.0322222222222224</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
       <c r="B37">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
         <v>51.488055555555555</v>
       </c>
-      <c r="C37">
+      <c r="I37">
+        <f t="shared" si="1"/>
         <v>-2.0258333333333334</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>39</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
         <v>51.494722222222222</v>
       </c>
-      <c r="C38">
+      <c r="I38">
+        <f t="shared" si="1"/>
         <v>-2.0274999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B39">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
         <v>51.495555555555555</v>
       </c>
-      <c r="C39">
+      <c r="I39">
+        <f t="shared" si="1"/>
         <v>-2.0280555555555555</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>23</v>
       </c>
       <c r="B40">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>44</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
         <v>51.496388888888887</v>
       </c>
-      <c r="C40">
+      <c r="I40">
+        <f t="shared" si="1"/>
         <v>-2.028888888888889</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24</v>
       </c>
       <c r="B41">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>57</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
         <v>51.505277777777778</v>
       </c>
-      <c r="C41">
+      <c r="I41">
+        <f t="shared" si="1"/>
         <v>-2.0324999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
         <v>51.50888888888889</v>
       </c>
-      <c r="C42">
+      <c r="I42">
+        <f t="shared" si="1"/>
         <v>-2.0277777777777777</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
       <c r="B43">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
         <v>51.511111111111113</v>
       </c>
-      <c r="C43">
+      <c r="I43">
+        <f t="shared" si="1"/>
         <v>-2.0249999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26</v>
       </c>
       <c r="B44">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
         <v>51.518333333333331</v>
       </c>
-      <c r="C44">
+      <c r="I44">
+        <f t="shared" si="1"/>
         <v>-2.0183333333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B45">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>28</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
         <v>51.520277777777778</v>
       </c>
-      <c r="C45">
+      <c r="I45">
+        <f t="shared" si="1"/>
         <v>-2.0077777777777777</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>27</v>
       </c>
       <c r="B46">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
         <v>51.520833333333336</v>
       </c>
-      <c r="C46">
+      <c r="I46">
+        <f t="shared" si="1"/>
         <v>-2.0030555555555556</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>28</v>
       </c>
       <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>59</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
         <v>51.523333333333333</v>
       </c>
-      <c r="C47">
+      <c r="I47">
+        <f t="shared" si="1"/>
         <v>-1.9886111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>29</v>
       </c>
       <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>58</v>
+      </c>
+      <c r="G48">
+        <v>36</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
         <v>51.524444444444441</v>
       </c>
-      <c r="C48">
+      <c r="I48">
+        <f t="shared" si="1"/>
         <v>-1.9766666666666668</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B49">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>32</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
         <v>51.525555555555556</v>
       </c>
-      <c r="C49">
+      <c r="I49">
+        <f t="shared" si="1"/>
         <v>-1.9705555555555556</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B50">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>58</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
         <v>51.526111111111113</v>
       </c>
-      <c r="C50">
+      <c r="I50">
+        <f t="shared" si="1"/>
         <v>-1.9702777777777778</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
         <v>51.526388888888889</v>
       </c>
-      <c r="C51">
+      <c r="I51">
+        <f t="shared" si="1"/>
         <v>-1.9697222222222224</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>58</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
         <v>51.526944444444446</v>
       </c>
-      <c r="C52">
+      <c r="I52">
+        <f t="shared" si="1"/>
         <v>-1.9694444444444446</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>58</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
         <v>51.527499999999996</v>
       </c>
-      <c r="C53">
+      <c r="I53">
+        <f t="shared" si="1"/>
         <v>-1.9686111111111113</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>58</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
         <v>51.527777777777779</v>
       </c>
-      <c r="C54">
+      <c r="I54">
+        <f t="shared" si="1"/>
         <v>-1.9680555555555557</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>58</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
         <v>51.528055555555554</v>
       </c>
-      <c r="C55">
+      <c r="I55">
+        <f t="shared" si="1"/>
         <v>-1.9677777777777778</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>30</v>
       </c>
       <c r="B56">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>43</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>57</v>
+      </c>
+      <c r="G56">
+        <v>52</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
         <v>51.528611111111111</v>
       </c>
-      <c r="C56">
+      <c r="I56">
+        <f t="shared" si="1"/>
         <v>-1.9644444444444444</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>31</v>
       </c>
       <c r="B57">
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
         <v>51.531388888888891</v>
       </c>
-      <c r="C57">
+      <c r="I57">
+        <f t="shared" si="1"/>
         <v>-1.9524999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>32</v>
       </c>
       <c r="B58">
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>17</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
         <v>51.534999999999997</v>
       </c>
-      <c r="C58">
+      <c r="I58">
+        <f t="shared" si="1"/>
         <v>-1.9380555555555556</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>33</v>
       </c>
       <c r="B59">
+        <v>51</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>55</v>
+      </c>
+      <c r="G59">
+        <v>38</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
         <v>51.533888888888889</v>
       </c>
-      <c r="C59">
+      <c r="I59">
+        <f t="shared" si="1"/>
         <v>-1.9272222222222222</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34</v>
       </c>
       <c r="B60">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>31</v>
+      </c>
+      <c r="D60">
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>54</v>
+      </c>
+      <c r="G60">
+        <v>43</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
         <v>51.532499999999999</v>
       </c>
-      <c r="C60">
+      <c r="I60">
+        <f t="shared" si="1"/>
         <v>-1.9119444444444444</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B61">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>57</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>54</v>
+      </c>
+      <c r="G61">
+        <v>36</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
         <v>51.532499999999999</v>
       </c>
-      <c r="C61">
+      <c r="I61">
+        <f t="shared" si="1"/>
         <v>-1.91</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B62">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>57</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>54</v>
+      </c>
+      <c r="G62">
+        <v>14</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
         <v>51.532499999999999</v>
       </c>
-      <c r="C62">
+      <c r="I62">
+        <f t="shared" si="1"/>
         <v>-1.9038888888888887</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>35</v>
       </c>
       <c r="B63">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>56</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>54</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
         <v>51.532222222222224</v>
       </c>
-      <c r="C63">
+      <c r="I63">
+        <f t="shared" si="1"/>
         <v>-1.8983333333333332</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>36</v>
       </c>
       <c r="B64">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>56</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
         <v>51.534722222222221</v>
       </c>
-      <c r="C64">
+      <c r="I64">
+        <f t="shared" si="1"/>
         <v>-1.8822222222222222</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B65">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>52</v>
+      </c>
+      <c r="G65">
+        <v>29</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
         <v>51.534722222222221</v>
       </c>
-      <c r="C65">
+      <c r="I65">
+        <f t="shared" si="1"/>
         <v>-1.8747222222222222</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>37</v>
       </c>
       <c r="B66">
+        <v>51</v>
+      </c>
+      <c r="C66">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>52</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
         <v>51.533888888888889</v>
       </c>
-      <c r="C66">
+      <c r="I66">
+        <f t="shared" si="1"/>
         <v>-1.8708333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <v>51</v>
+      </c>
+      <c r="C67">
         <v>31</v>
       </c>
-      <c r="B67">
+      <c r="D67">
+        <v>58</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>52</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="2">B67+(C67/60)+(D67/3600)</f>
         <v>51.532777777777774</v>
       </c>
-      <c r="C67">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="3">-(E67+(F67/60)+(G67/3600))</f>
         <v>-1.8669444444444445</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>38</v>
       </c>
       <c r="B68">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>56</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>51</v>
+      </c>
+      <c r="G68">
+        <v>21</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
         <v>51.532222222222224</v>
       </c>
-      <c r="C68">
+      <c r="I68">
+        <f t="shared" si="3"/>
         <v>-1.8558333333333334</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>39</v>
       </c>
       <c r="B69">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>32</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>42</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
         <v>51.536944444444444</v>
       </c>
-      <c r="C69">
+      <c r="I69">
+        <f t="shared" si="3"/>
         <v>-1.8450000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>40</v>
       </c>
       <c r="B70">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>32</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>49</v>
+      </c>
+      <c r="G70">
+        <v>56</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
         <v>51.539722222222217</v>
       </c>
-      <c r="C70">
+      <c r="I70">
+        <f t="shared" si="3"/>
         <v>-1.8322222222222222</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>41</v>
       </c>
       <c r="B71">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>32</v>
+      </c>
+      <c r="D71">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>49</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
         <v>51.540555555555557</v>
       </c>
-      <c r="C71">
+      <c r="I71">
+        <f t="shared" si="3"/>
         <v>-1.8191666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>42</v>
       </c>
       <c r="B72">
+        <v>51</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
         <v>51.540555555555557</v>
       </c>
-      <c r="C72">
+      <c r="I72">
+        <f t="shared" si="3"/>
         <v>-1.8044444444444445</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73">
+        <v>51</v>
+      </c>
+      <c r="C73">
         <v>32</v>
       </c>
-      <c r="B73">
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>48</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
         <v>51.540555555555557</v>
       </c>
-      <c r="C73">
+      <c r="I73">
+        <f t="shared" si="3"/>
         <v>-1.8011111111111111</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>43</v>
       </c>
       <c r="B74">
+        <v>51</v>
+      </c>
+      <c r="C74">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>47</v>
+      </c>
+      <c r="G74">
+        <v>22</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
         <v>51.54</v>
       </c>
-      <c r="C74">
+      <c r="I74">
+        <f t="shared" si="3"/>
         <v>-1.7894444444444444</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B75">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>26</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>47</v>
+      </c>
+      <c r="G75">
+        <v>36</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
         <v>51.540555555555557</v>
       </c>
-      <c r="C75">
+      <c r="I75">
+        <f t="shared" si="3"/>
         <v>-1.7933333333333332</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B76">
+        <v>51</v>
+      </c>
+      <c r="C76">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>46</v>
+      </c>
+      <c r="G76">
+        <v>52</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
         <v>51.537222222222219</v>
       </c>
-      <c r="C76">
+      <c r="I76">
+        <f t="shared" si="3"/>
         <v>-1.7811111111111111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B77">
+        <v>51</v>
+      </c>
+      <c r="C77">
+        <v>32</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>46</v>
+      </c>
+      <c r="G77">
+        <v>46</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
         <v>51.536666666666662</v>
       </c>
-      <c r="C77">
+      <c r="I77">
+        <f t="shared" si="3"/>
         <v>-1.7794444444444444</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>44</v>
       </c>
       <c r="B78">
+        <v>51</v>
+      </c>
+      <c r="C78">
+        <v>32</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>35</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
         <v>51.535555555555554</v>
       </c>
-      <c r="C78">
+      <c r="I78">
+        <f t="shared" si="3"/>
         <v>-1.7763888888888888</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>45</v>
       </c>
       <c r="B79">
+        <v>51</v>
+      </c>
+      <c r="C79">
+        <v>31</v>
+      </c>
+      <c r="D79">
+        <v>58</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="2"/>
         <v>51.532777777777774</v>
       </c>
-      <c r="C79">
+      <c r="I79">
+        <f t="shared" si="3"/>
         <v>-1.7677777777777777</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>46</v>
       </c>
       <c r="B80">
+        <v>51</v>
+      </c>
+      <c r="C80">
+        <v>32</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>45</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
         <v>51.533888888888889</v>
       </c>
-      <c r="C80">
+      <c r="I80">
+        <f t="shared" si="3"/>
         <v>-1.7555555555555555</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>47</v>
       </c>
       <c r="B81">
+        <v>51</v>
+      </c>
+      <c r="C81">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>53</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>44</v>
+      </c>
+      <c r="G81">
+        <v>24</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
         <v>51.531388888888891</v>
       </c>
-      <c r="C81">
+      <c r="I81">
+        <f t="shared" si="3"/>
         <v>-1.74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B82">
+        <v>51</v>
+      </c>
+      <c r="C82">
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <v>43</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>43</v>
+      </c>
+      <c r="G82">
+        <v>59</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
         <v>51.528611111111111</v>
       </c>
-      <c r="C82">
+      <c r="I82">
+        <f t="shared" si="3"/>
         <v>-1.7330555555555556</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>48</v>
       </c>
       <c r="B83">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>43</v>
+      </c>
+      <c r="G83">
+        <v>48</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
         <v>51.53</v>
       </c>
-      <c r="C83">
+      <c r="I83">
+        <f t="shared" si="3"/>
         <v>-1.7300000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B84">
+        <v>51</v>
+      </c>
+      <c r="C84">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>54</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>43</v>
+      </c>
+      <c r="G84">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="2"/>
         <v>51.531666666666666</v>
       </c>
-      <c r="C84">
+      <c r="I84">
+        <f t="shared" si="3"/>
         <v>-1.7261111111111112</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B85">
+        <v>51</v>
+      </c>
+      <c r="C85">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>57</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>43</v>
+      </c>
+      <c r="G85">
+        <v>22</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="2"/>
         <v>51.532499999999999</v>
       </c>
-      <c r="C85">
+      <c r="I85">
+        <f t="shared" si="3"/>
         <v>-1.722777777777778</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B86">
+        <v>51</v>
+      </c>
+      <c r="C86">
+        <v>32</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>43</v>
+      </c>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="2"/>
         <v>51.535277777777779</v>
       </c>
-      <c r="C86">
+      <c r="I86">
+        <f t="shared" si="3"/>
         <v>-1.7191666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>49</v>
       </c>
       <c r="B87">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>32</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>43</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="2"/>
         <v>51.535277777777779</v>
       </c>
-      <c r="C87">
+      <c r="I87">
+        <f t="shared" si="3"/>
         <v>-1.7188888888888889</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B88">
+        <v>51</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>43</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="2"/>
         <v>51.538333333333334</v>
       </c>
-      <c r="C88">
+      <c r="I88">
+        <f t="shared" si="3"/>
         <v>-1.7186111111111113</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>50</v>
       </c>
       <c r="B89">
+        <v>51</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>35</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>42</v>
+      </c>
+      <c r="G89">
+        <v>57</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="2"/>
         <v>51.543055555555554</v>
       </c>
-      <c r="C89">
+      <c r="I89">
+        <f t="shared" si="3"/>
         <v>-1.7158333333333333</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B90">
+        <v>51</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>45</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>43</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="2"/>
         <v>51.545833333333334</v>
       </c>
-      <c r="C90">
+      <c r="I90">
+        <f t="shared" si="3"/>
         <v>-1.7169444444444446</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91">
+        <v>51</v>
+      </c>
+      <c r="C91">
+        <v>32</v>
+      </c>
+      <c r="D91">
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>43</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>51.548888888888889</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>-1.7177777777777778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>51</v>
+      </c>
+      <c r="B92">
+        <v>51</v>
+      </c>
+      <c r="C92">
+        <v>33</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
         <v>42</v>
       </c>
-      <c r="B91">
-        <v>51.548888888888889</v>
-      </c>
-      <c r="C91">
-        <v>-1.7177777777777778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>51</v>
-      </c>
-      <c r="B92">
+      <c r="G92">
+        <v>56</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="2"/>
         <v>51.551111111111105</v>
       </c>
-      <c r="C92">
+      <c r="I92">
+        <f t="shared" si="3"/>
         <v>-1.7155555555555555</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B93">
+        <v>51</v>
+      </c>
+      <c r="C93">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>42</v>
+      </c>
+      <c r="G93">
+        <v>49</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="2"/>
         <v>51.554722222222217</v>
       </c>
-      <c r="C93">
+      <c r="I93">
+        <f t="shared" si="3"/>
         <v>-1.713611111111111</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94">
+        <v>51</v>
+      </c>
+      <c r="C94">
+        <v>33</v>
+      </c>
+      <c r="D94">
         <v>44</v>
       </c>
-      <c r="B94">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>42</v>
+      </c>
+      <c r="G94">
+        <v>48</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="2"/>
         <v>51.562222222222218</v>
       </c>
-      <c r="C94">
+      <c r="I94">
+        <f t="shared" si="3"/>
         <v>-1.7133333333333334</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>52</v>
       </c>
       <c r="B95">
+        <v>51</v>
+      </c>
+      <c r="C95">
+        <v>33</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>42</v>
+      </c>
+      <c r="G95">
+        <v>51</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="2"/>
         <v>51.559444444444445</v>
       </c>
-      <c r="C95">
+      <c r="I95">
+        <f t="shared" si="3"/>
         <v>-1.7141666666666666</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>53</v>
       </c>
       <c r="B96">
+        <v>51</v>
+      </c>
+      <c r="C96">
+        <v>34</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>42</v>
+      </c>
+      <c r="G96">
+        <v>28</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="2"/>
         <v>51.56805555555556</v>
       </c>
-      <c r="C96">
+      <c r="I96">
+        <f t="shared" si="3"/>
         <v>-1.7077777777777778</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
       <c r="B97">
+        <v>51</v>
+      </c>
+      <c r="C97">
+        <v>34</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>41</v>
+      </c>
+      <c r="G97">
+        <v>57</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="2"/>
         <v>51.573888888888895</v>
       </c>
-      <c r="C97">
+      <c r="I97">
+        <f t="shared" si="3"/>
         <v>-1.6991666666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B98">
+        <v>51</v>
+      </c>
+      <c r="C98">
+        <v>34</v>
+      </c>
+      <c r="D98">
+        <v>41</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>41</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="2"/>
         <v>51.578055555555558</v>
       </c>
-      <c r="C98">
+      <c r="I98">
+        <f t="shared" si="3"/>
         <v>-1.6972222222222222</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>55</v>
       </c>
       <c r="B99">
+        <v>51</v>
+      </c>
+      <c r="C99">
+        <v>34</v>
+      </c>
+      <c r="D99">
+        <v>46</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>41</v>
+      </c>
+      <c r="G99">
+        <v>37</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="2"/>
         <v>51.579444444444448</v>
       </c>
-      <c r="C99">
+      <c r="I99">
+        <f t="shared" si="3"/>
         <v>-1.6936111111111112</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>56</v>
       </c>
       <c r="B100">
+        <v>51</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>41</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="2"/>
         <v>51.586388888888891</v>
       </c>
-      <c r="C100">
+      <c r="I100">
+        <f t="shared" si="3"/>
         <v>-1.683888888888889</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>57</v>
       </c>
       <c r="B101">
+        <v>51</v>
+      </c>
+      <c r="C101">
+        <v>35</v>
+      </c>
+      <c r="D101">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>40</v>
+      </c>
+      <c r="G101">
+        <v>16</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="2"/>
         <v>51.591111111111111</v>
       </c>
-      <c r="C101">
+      <c r="I101">
+        <f t="shared" si="3"/>
         <v>-1.671111111111111</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>58</v>
       </c>
       <c r="B102">
+        <v>51</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>39</v>
+      </c>
+      <c r="G102">
+        <v>29</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="2"/>
         <v>51.589722222222221</v>
       </c>
-      <c r="C102">
+      <c r="I102">
+        <f t="shared" si="3"/>
         <v>-1.6580555555555554</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>59</v>
       </c>
       <c r="B103">
+        <v>51</v>
+      </c>
+      <c r="C103">
+        <v>35</v>
+      </c>
+      <c r="D103">
+        <v>42</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>38</v>
+      </c>
+      <c r="G103">
+        <v>46</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="2"/>
         <v>51.594999999999999</v>
       </c>
-      <c r="C103">
+      <c r="I103">
+        <f t="shared" si="3"/>
         <v>-1.6461111111111111</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>60</v>
       </c>
       <c r="B104">
+        <v>51</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>37</v>
+      </c>
+      <c r="G104">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="2"/>
         <v>51.594444444444449</v>
       </c>
-      <c r="C104">
+      <c r="I104">
+        <f t="shared" si="3"/>
         <v>-1.6305555555555555</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>61</v>
       </c>
       <c r="B105">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>36</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>37</v>
+      </c>
+      <c r="G105">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="2"/>
         <v>51.600555555555559</v>
       </c>
-      <c r="C105">
+      <c r="I105">
+        <f t="shared" si="3"/>
         <v>-1.6208333333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>62</v>
       </c>
       <c r="B106">
+        <v>51</v>
+      </c>
+      <c r="C106">
+        <v>36</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>36</v>
+      </c>
+      <c r="G106">
+        <v>29</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="2"/>
         <v>51.601388888888891</v>
       </c>
-      <c r="C106">
+      <c r="I106">
+        <f t="shared" si="3"/>
         <v>-1.6080555555555556</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B107">
+        <v>51</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>36</v>
+      </c>
+      <c r="G107">
+        <v>6</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="2"/>
         <v>51.602777777777781</v>
       </c>
-      <c r="C107">
+      <c r="I107">
+        <f t="shared" si="3"/>
         <v>-1.6016666666666668</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B108">
+        <v>51</v>
+      </c>
+      <c r="C108">
+        <v>36</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>35</v>
+      </c>
+      <c r="G108">
+        <v>54</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="2"/>
         <v>51.603055555555557</v>
       </c>
-      <c r="C108">
+      <c r="I108">
+        <f t="shared" si="3"/>
         <v>-1.5983333333333334</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>63</v>
       </c>
       <c r="B109">
+        <v>51</v>
+      </c>
+      <c r="C109">
+        <v>36</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>35</v>
+      </c>
+      <c r="G109">
+        <v>41</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="2"/>
         <v>51.602499999999999</v>
       </c>
-      <c r="C109">
+      <c r="I109">
+        <f t="shared" si="3"/>
         <v>-1.5947222222222224</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>64</v>
       </c>
       <c r="B110">
+        <v>51</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+      <c r="D110">
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>34</v>
+      </c>
+      <c r="G110">
+        <v>50</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="2"/>
         <v>51.606111111111112</v>
       </c>
-      <c r="C110">
+      <c r="I110">
+        <f t="shared" si="3"/>
         <v>-1.5805555555555555</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>65</v>
       </c>
       <c r="B111">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>36</v>
+      </c>
+      <c r="D111">
+        <v>28</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>33</v>
+      </c>
+      <c r="G111">
+        <v>41</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="2"/>
         <v>51.607777777777777</v>
       </c>
-      <c r="C111">
+      <c r="I111">
+        <f t="shared" si="3"/>
         <v>-1.5613888888888889</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>66</v>
       </c>
       <c r="B112">
+        <v>51</v>
+      </c>
+      <c r="C112">
+        <v>36</v>
+      </c>
+      <c r="D112">
+        <v>32</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>33</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="2"/>
         <v>51.608888888888892</v>
       </c>
-      <c r="C112">
+      <c r="I112">
+        <f t="shared" si="3"/>
         <v>-1.5505555555555557</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>67</v>
       </c>
       <c r="B113">
+        <v>51</v>
+      </c>
+      <c r="C113">
+        <v>36</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>32</v>
+      </c>
+      <c r="G113">
+        <v>38</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="2"/>
         <v>51.601944444444449</v>
       </c>
-      <c r="C113">
+      <c r="I113">
+        <f t="shared" si="3"/>
         <v>-1.5438888888888889</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>68</v>
       </c>
       <c r="B114">
+        <v>51</v>
+      </c>
+      <c r="C114">
+        <v>35</v>
+      </c>
+      <c r="D114">
+        <v>55</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>31</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="2"/>
         <v>51.598611111111111</v>
       </c>
-      <c r="C114">
+      <c r="I114">
+        <f t="shared" si="3"/>
         <v>-1.5305555555555554</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>69</v>
       </c>
       <c r="B115">
+        <v>51</v>
+      </c>
+      <c r="C115">
+        <v>35</v>
+      </c>
+      <c r="D115">
+        <v>48</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>30</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="2"/>
         <v>51.596666666666671</v>
       </c>
-      <c r="C115">
+      <c r="I115">
+        <f t="shared" si="3"/>
         <v>-1.5027777777777778</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>70</v>
       </c>
       <c r="B116">
+        <v>51</v>
+      </c>
+      <c r="C116">
+        <v>35</v>
+      </c>
+      <c r="D116">
+        <v>43</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>29</v>
+      </c>
+      <c r="G116">
+        <v>18</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="2"/>
         <v>51.595277777777781</v>
       </c>
-      <c r="C116">
+      <c r="I116">
+        <f t="shared" si="3"/>
         <v>-1.4883333333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>71</v>
       </c>
       <c r="B117">
+        <v>51</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="D117">
+        <v>31</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>28</v>
+      </c>
+      <c r="G117">
+        <v>38</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="2"/>
         <v>51.591944444444444</v>
       </c>
-      <c r="C117">
+      <c r="I117">
+        <f t="shared" si="3"/>
         <v>-1.4772222222222224</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>72</v>
       </c>
       <c r="B118">
+        <v>51</v>
+      </c>
+      <c r="C118">
+        <v>35</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>27</v>
+      </c>
+      <c r="G118">
+        <v>46</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="2"/>
         <v>51.592777777777783</v>
       </c>
-      <c r="C118">
+      <c r="I118">
+        <f t="shared" si="3"/>
         <v>-1.4627777777777777</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>73</v>
       </c>
       <c r="B119">
+        <v>51</v>
+      </c>
+      <c r="C119">
+        <v>35</v>
+      </c>
+      <c r="D119">
+        <v>35</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>26</v>
+      </c>
+      <c r="G119">
+        <v>57</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="2"/>
         <v>51.593055555555559</v>
       </c>
-      <c r="C119">
+      <c r="I119">
+        <f t="shared" si="3"/>
         <v>-1.4491666666666667</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>74</v>
       </c>
       <c r="B120">
+        <v>51</v>
+      </c>
+      <c r="C120">
+        <v>35</v>
+      </c>
+      <c r="D120">
+        <v>50</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>26</v>
+      </c>
+      <c r="G120">
+        <v>12</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="2"/>
         <v>51.597222222222221</v>
       </c>
-      <c r="C120">
+      <c r="I120">
+        <f t="shared" si="3"/>
         <v>-1.4366666666666668</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B121">
+        <v>51</v>
+      </c>
+      <c r="C121">
+        <v>35</v>
+      </c>
+      <c r="D121">
+        <v>55</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>26</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="2"/>
         <v>51.598611111111111</v>
       </c>
-      <c r="C121">
+      <c r="I121">
+        <f t="shared" si="3"/>
         <v>-1.433888888888889</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B122">
+        <v>51</v>
+      </c>
+      <c r="C122">
+        <v>36</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>39</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="2"/>
         <v>51.600555555555559</v>
       </c>
-      <c r="C122">
+      <c r="I122">
+        <f t="shared" si="3"/>
         <v>-1.4275</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>75</v>
       </c>
       <c r="B123">
+        <v>51</v>
+      </c>
+      <c r="C123">
+        <v>36</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123">
+        <v>22</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="2"/>
         <v>51.601666666666667</v>
       </c>
-      <c r="C123">
+      <c r="I123">
+        <f t="shared" si="3"/>
         <v>-1.4227777777777779</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B124">
+        <v>51</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+      <c r="G124">
+        <v>49</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="2"/>
         <v>51.605555555555554</v>
       </c>
-      <c r="C124">
+      <c r="I124">
+        <f t="shared" si="3"/>
         <v>-1.4136111111111109</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B125">
+        <v>51</v>
+      </c>
+      <c r="C125">
+        <v>36</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>24</v>
+      </c>
+      <c r="G125">
+        <v>30</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="2"/>
         <v>51.606944444444444</v>
       </c>
-      <c r="C125">
+      <c r="I125">
+        <f t="shared" si="3"/>
         <v>-1.4083333333333332</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B126">
+        <v>51</v>
+      </c>
+      <c r="C126">
+        <v>36</v>
+      </c>
+      <c r="D126">
+        <v>27</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>23</v>
+      </c>
+      <c r="G126">
+        <v>57</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="2"/>
         <v>51.607500000000002</v>
       </c>
-      <c r="C126">
+      <c r="I126">
+        <f t="shared" si="3"/>
         <v>-1.3991666666666667</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B127">
+        <v>51</v>
+      </c>
+      <c r="C127">
+        <v>36</v>
+      </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>23</v>
+      </c>
+      <c r="G127">
+        <v>28</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="2"/>
         <v>51.608333333333334</v>
       </c>
-      <c r="C127">
+      <c r="I127">
+        <f t="shared" si="3"/>
         <v>-1.3911111111111112</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>76</v>
       </c>
       <c r="B128">
+        <v>51</v>
+      </c>
+      <c r="C128">
+        <v>36</v>
+      </c>
+      <c r="D128">
+        <v>22</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>24</v>
+      </c>
+      <c r="G128">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="2"/>
         <v>51.606111111111112</v>
       </c>
-      <c r="C128">
+      <c r="I128">
+        <f t="shared" si="3"/>
         <v>-1.411111111111111</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>77</v>
       </c>
       <c r="B129">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>36</v>
+      </c>
+      <c r="D129">
+        <v>27</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>23</v>
+      </c>
+      <c r="G129">
+        <v>57</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="2"/>
         <v>51.607500000000002</v>
       </c>
-      <c r="C129">
+      <c r="I129">
+        <f t="shared" si="3"/>
         <v>-1.3991666666666667</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>78</v>
       </c>
       <c r="B130">
+        <v>51</v>
+      </c>
+      <c r="C130">
+        <v>36</v>
+      </c>
+      <c r="D130">
+        <v>42</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>23</v>
+      </c>
+      <c r="G130">
+        <v>14</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="2"/>
         <v>51.611666666666665</v>
       </c>
-      <c r="C130">
+      <c r="I130">
+        <f t="shared" si="3"/>
         <v>-1.3872222222222221</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B131">
+        <v>51</v>
+      </c>
+      <c r="C131">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>23</v>
+      </c>
+      <c r="G131">
+        <v>11</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H144" si="4">B131+(C131/60)+(D131/3600)</f>
         <v>51.617222222222225</v>
       </c>
-      <c r="C131">
+      <c r="I131">
+        <f t="shared" ref="I131:I144" si="5">-(E131+(F131/60)+(G131/3600))</f>
         <v>-1.3863888888888889</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>79</v>
       </c>
       <c r="B132">
+        <v>51</v>
+      </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>23</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="4"/>
         <v>51.62222222222222</v>
       </c>
-      <c r="C132">
+      <c r="I132">
+        <f t="shared" si="5"/>
         <v>-1.3841666666666665</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B133">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>37</v>
+      </c>
+      <c r="D133">
+        <v>30</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133">
+        <v>50</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="4"/>
         <v>51.625</v>
       </c>
-      <c r="C133">
+      <c r="I133">
+        <f t="shared" si="5"/>
         <v>-1.3805555555555555</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>80</v>
       </c>
       <c r="B134">
+        <v>51</v>
+      </c>
+      <c r="C134">
+        <v>37</v>
+      </c>
+      <c r="D134">
+        <v>37</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>22</v>
+      </c>
+      <c r="G134">
+        <v>35</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="4"/>
         <v>51.626944444444447</v>
       </c>
-      <c r="C134">
+      <c r="I134">
+        <f t="shared" si="5"/>
         <v>-1.3763888888888889</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>81</v>
       </c>
       <c r="B135">
+        <v>51</v>
+      </c>
+      <c r="C135">
+        <v>38</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>58</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
         <v>51.633611111111108</v>
       </c>
-      <c r="C135">
+      <c r="I135">
+        <f t="shared" si="5"/>
         <v>-1.3661111111111113</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>82</v>
       </c>
       <c r="B136">
+        <v>51</v>
+      </c>
+      <c r="C136">
+        <v>38</v>
+      </c>
+      <c r="D136">
+        <v>22</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>21</v>
+      </c>
+      <c r="G136">
+        <v>15</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="4"/>
         <v>51.639444444444443</v>
       </c>
-      <c r="C136">
+      <c r="I136">
+        <f t="shared" si="5"/>
         <v>-1.3541666666666667</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>83</v>
       </c>
       <c r="B137">
+        <v>51</v>
+      </c>
+      <c r="C137">
+        <v>38</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>20</v>
+      </c>
+      <c r="G137">
+        <v>32</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="4"/>
         <v>51.642499999999998</v>
       </c>
-      <c r="C137">
+      <c r="I137">
+        <f t="shared" si="5"/>
         <v>-1.3422222222222222</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>84</v>
       </c>
       <c r="B138">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>38</v>
+      </c>
+      <c r="D138">
+        <v>40</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>19</v>
+      </c>
+      <c r="G138">
+        <v>51</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="4"/>
         <v>51.644444444444446</v>
       </c>
-      <c r="C138">
+      <c r="I138">
+        <f t="shared" si="5"/>
         <v>-1.3308333333333333</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>85</v>
       </c>
       <c r="B139">
+        <v>51</v>
+      </c>
+      <c r="C139">
+        <v>39</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>19</v>
+      </c>
+      <c r="G139">
+        <v>17</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="4"/>
         <v>51.652499999999996</v>
       </c>
-      <c r="C139">
+      <c r="I139">
+        <f t="shared" si="5"/>
         <v>-1.3213888888888889</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>86</v>
       </c>
       <c r="B140">
+        <v>51</v>
+      </c>
+      <c r="C140">
+        <v>39</v>
+      </c>
+      <c r="D140">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140">
+        <v>34</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="4"/>
         <v>51.655277777777776</v>
       </c>
-      <c r="C140">
+      <c r="I140">
+        <f t="shared" si="5"/>
         <v>-1.3094444444444444</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B141">
+        <v>51</v>
+      </c>
+      <c r="C141">
+        <v>39</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>22</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="4"/>
         <v>51.655555555555551</v>
       </c>
-      <c r="C141">
+      <c r="I141">
+        <f t="shared" si="5"/>
         <v>-1.3061111111111112</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B142">
+        <v>51</v>
+      </c>
+      <c r="C142">
+        <v>39</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>17</v>
+      </c>
+      <c r="G142">
+        <v>48</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="4"/>
         <v>51.653611111111111</v>
       </c>
-      <c r="C142">
+      <c r="I142">
+        <f t="shared" si="5"/>
         <v>-1.2966666666666666</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>87</v>
       </c>
       <c r="B143">
+        <v>51</v>
+      </c>
+      <c r="C143">
+        <v>39</v>
+      </c>
+      <c r="D143">
+        <v>13</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>17</v>
+      </c>
+      <c r="G143">
+        <v>48</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="4"/>
         <v>51.653611111111111</v>
       </c>
-      <c r="C143">
+      <c r="I143">
+        <f t="shared" si="5"/>
         <v>-1.2966666666666666</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>88</v>
       </c>
       <c r="B144">
+        <v>51</v>
+      </c>
+      <c r="C144">
+        <v>39</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144">
+        <v>56</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="4"/>
         <v>51.650833333333331</v>
       </c>
-      <c r="C144">
+      <c r="I144">
+        <f t="shared" si="5"/>
         <v>-1.2822222222222222</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B145">
+        <v>51</v>
+      </c>
+      <c r="C145">
+        <v>32</v>
+      </c>
+      <c r="D145">
+        <v>27</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>48</v>
+      </c>
+      <c r="G145">
+        <v>46</v>
+      </c>
+      <c r="H145">
         <v>51.540833333333332</v>
       </c>
-      <c r="C145">
+      <c r="I145">
         <v>-1.8127777777777778</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B146">
+        <v>51</v>
+      </c>
+      <c r="C146">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>39</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>48</v>
+      </c>
+      <c r="G146">
+        <v>34</v>
+      </c>
+      <c r="H146">
         <v>51.544166666666662</v>
       </c>
-      <c r="C146">
+      <c r="I146">
         <v>-1.8094444444444444</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B147">
+        <v>51</v>
+      </c>
+      <c r="C147">
+        <v>33</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>48</v>
+      </c>
+      <c r="G147">
+        <v>13</v>
+      </c>
+      <c r="H147">
         <v>51.55222222222222</v>
       </c>
-      <c r="C147">
+      <c r="I147">
         <v>-1.8036111111111111</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B148">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>33</v>
+      </c>
+      <c r="D148">
+        <v>40</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>48</v>
+      </c>
+      <c r="G148">
+        <v>23</v>
+      </c>
+      <c r="H148">
         <v>51.56111111111111</v>
       </c>
-      <c r="C148">
+      <c r="I148">
         <v>-1.806388888888889</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B149">
+        <v>51</v>
+      </c>
+      <c r="C149">
+        <v>34</v>
+      </c>
+      <c r="D149">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>48</v>
+      </c>
+      <c r="G149">
+        <v>32</v>
+      </c>
+      <c r="H149">
         <v>51.57</v>
       </c>
-      <c r="C149">
+      <c r="I149">
         <v>-1.808888888888889</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B150">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>34</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>48</v>
+      </c>
+      <c r="G150">
+        <v>31</v>
+      </c>
+      <c r="H150">
         <v>51.56944444444445</v>
       </c>
-      <c r="C150">
+      <c r="I150">
         <v>-1.8086111111111112</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B151">
+        <v>51</v>
+      </c>
+      <c r="C151">
+        <v>34</v>
+      </c>
+      <c r="D151">
+        <v>14</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>48</v>
+      </c>
+      <c r="G151">
+        <v>33</v>
+      </c>
+      <c r="H151">
         <v>51.570555555555558</v>
       </c>
-      <c r="C151">
+      <c r="I151">
         <v>-1.8091666666666668</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B152">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>34</v>
+      </c>
+      <c r="D152">
+        <v>30</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>49</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
         <v>51.575000000000003</v>
       </c>
-      <c r="C152">
+      <c r="I152">
         <v>-1.8169444444444445</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B153">
+        <v>51</v>
+      </c>
+      <c r="C153">
+        <v>34</v>
+      </c>
+      <c r="D153">
+        <v>24</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>48</v>
+      </c>
+      <c r="G153">
+        <v>47</v>
+      </c>
+      <c r="H153">
         <v>51.573333333333338</v>
       </c>
-      <c r="C153">
+      <c r="I153">
         <v>-1.8130555555555556</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="C154">
+        <v>35</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>49</v>
+      </c>
+      <c r="G154">
+        <v>35</v>
+      </c>
+      <c r="H154">
         <v>51.584166666666668</v>
       </c>
-      <c r="C154">
+      <c r="I154">
         <v>-1.8263888888888888</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B155">
+        <v>51</v>
+      </c>
+      <c r="C155">
+        <v>35</v>
+      </c>
+      <c r="D155">
+        <v>22</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155">
+        <v>15</v>
+      </c>
+      <c r="H155">
         <v>51.589444444444446</v>
       </c>
-      <c r="C155">
+      <c r="I155">
         <v>-1.8375000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B156">
+        <v>51</v>
+      </c>
+      <c r="C156">
+        <v>35</v>
+      </c>
+      <c r="D156">
+        <v>38</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>50</v>
+      </c>
+      <c r="G156">
+        <v>39</v>
+      </c>
+      <c r="H156">
         <v>51.593888888888891</v>
       </c>
-      <c r="C156">
+      <c r="I156">
         <v>-1.8441666666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B157">
+        <v>51</v>
+      </c>
+      <c r="C157">
+        <v>35</v>
+      </c>
+      <c r="D157">
+        <v>40</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>50</v>
+      </c>
+      <c r="G157">
+        <v>40</v>
+      </c>
+      <c r="H157">
         <v>51.594444444444449</v>
       </c>
-      <c r="C157">
+      <c r="I157">
         <v>-1.8444444444444446</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B158">
+        <v>51</v>
+      </c>
+      <c r="C158">
+        <v>36</v>
+      </c>
+      <c r="D158">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>50</v>
+      </c>
+      <c r="G158">
+        <v>50</v>
+      </c>
+      <c r="H158">
         <v>51.604444444444447</v>
       </c>
-      <c r="C158">
+      <c r="I158">
         <v>-1.8472222222222223</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B159">
+        <v>51</v>
+      </c>
+      <c r="C159">
+        <v>36</v>
+      </c>
+      <c r="D159">
+        <v>22</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>50</v>
+      </c>
+      <c r="G159">
+        <v>53</v>
+      </c>
+      <c r="H159">
         <v>51.606111111111112</v>
       </c>
-      <c r="C159">
+      <c r="I159">
         <v>-1.8480555555555558</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B160">
+        <v>51</v>
+      </c>
+      <c r="C160">
+        <v>36</v>
+      </c>
+      <c r="D160">
+        <v>42</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>51</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
         <v>51.611666666666665</v>
       </c>
-      <c r="C160">
+      <c r="I160">
         <v>-1.8505555555555557</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B161">
+        <v>51</v>
+      </c>
+      <c r="C161">
+        <v>37</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>51</v>
+      </c>
+      <c r="G161">
+        <v>9</v>
+      </c>
+      <c r="H161">
         <v>51.616944444444442</v>
       </c>
-      <c r="C161">
+      <c r="I161">
+        <f t="shared" ref="I161" si="6">-(E161+(F161/60)+(G161/3600))</f>
         <v>-1.8525</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B162">
+        <v>51</v>
+      </c>
+      <c r="C162">
+        <v>37</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>51</v>
+      </c>
+      <c r="G162">
+        <v>12</v>
+      </c>
+      <c r="H162">
         <v>51.61888888888889</v>
       </c>
-      <c r="C162">
+      <c r="I162">
         <v>-1.8533333333333335</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B163">
+        <v>51</v>
+      </c>
+      <c r="C163">
+        <v>37</v>
+      </c>
+      <c r="D163">
+        <v>40</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>51</v>
+      </c>
+      <c r="G163">
+        <v>37</v>
+      </c>
+      <c r="H163">
         <v>51.62777777777778</v>
       </c>
-      <c r="C163">
+      <c r="I163">
         <v>-1.8602777777777779</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B164">
+        <v>51</v>
+      </c>
+      <c r="C164">
+        <v>37</v>
+      </c>
+      <c r="D164">
+        <v>49</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>51</v>
+      </c>
+      <c r="G164">
+        <v>39</v>
+      </c>
+      <c r="H164">
         <v>51.630277777777778</v>
       </c>
-      <c r="C164">
+      <c r="I164">
         <v>-1.8608333333333333</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B165">
+        <v>51</v>
+      </c>
+      <c r="C165">
+        <v>38</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>51</v>
+      </c>
+      <c r="G165">
+        <v>19</v>
+      </c>
+      <c r="H165">
         <v>51.636666666666663</v>
       </c>
-      <c r="C165">
+      <c r="I165">
         <v>-1.8552777777777778</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B166">
+        <v>51</v>
+      </c>
+      <c r="C166">
+        <v>38</v>
+      </c>
+      <c r="D166">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>50</v>
+      </c>
+      <c r="G166">
+        <v>56</v>
+      </c>
+      <c r="H166">
         <v>51.638611111111111</v>
       </c>
-      <c r="C166">
+      <c r="I166">
         <v>-1.848888888888889</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B167">
+        <v>51</v>
+      </c>
+      <c r="C167">
+        <v>38</v>
+      </c>
+      <c r="D167">
+        <v>33</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>50</v>
+      </c>
+      <c r="G167">
+        <v>49</v>
+      </c>
+      <c r="H167">
         <v>51.642499999999998</v>
       </c>
-      <c r="C167">
+      <c r="I167">
         <v>-1.8469444444444445</v>
       </c>
     </row>
